--- a/MVP_02/SHOPPING_LISTS/VITROTEM.xlsx
+++ b/MVP_02/SHOPPING_LISTS/VITROTEM.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="144">
   <si>
     <t>DOCUMENT PREVIEW</t>
   </si>
@@ -178,9 +178,6 @@
     <t>20-019497</t>
   </si>
   <si>
-    <t>20-019499</t>
-  </si>
-  <si>
     <t>20-019500</t>
   </si>
   <si>
@@ -220,9 +217,6 @@
     <t>20-019496</t>
   </si>
   <si>
-    <t>20-019498</t>
-  </si>
-  <si>
     <t>20-019504</t>
   </si>
   <si>
@@ -232,6 +226,9 @@
     <t>20-019506</t>
   </si>
   <si>
+    <t>20-019508</t>
+  </si>
+  <si>
     <t>PRECISION MICRO 4</t>
   </si>
   <si>
@@ -364,9 +361,6 @@
     <t>WATER TRAY</t>
   </si>
   <si>
-    <t>TOP MOTOR STOP</t>
-  </si>
-  <si>
     <t>COVER A</t>
   </si>
   <si>
@@ -406,9 +400,6 @@
     <t>PUMP BRACKET B</t>
   </si>
   <si>
-    <t>HORIZONTAL MOTOR STOP</t>
-  </si>
-  <si>
     <t>PCB 02 MOUNT</t>
   </si>
   <si>
@@ -416,6 +407,9 @@
   </si>
   <si>
     <t>COVER CORNER BRACKETS</t>
+  </si>
+  <si>
+    <t>MOTOR STOP</t>
   </si>
   <si>
     <t>VITROTEM</t>
@@ -826,7 +820,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z63"/>
+  <dimension ref="A1:Z62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -877,25 +871,25 @@
     </row>
     <row r="2" spans="1:9">
       <c r="B2" s="1">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -903,25 +897,25 @@
     </row>
     <row r="3" spans="1:9">
       <c r="B3" s="1">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -929,25 +923,25 @@
     </row>
     <row r="4" spans="1:9">
       <c r="B4" s="1">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -955,25 +949,25 @@
     </row>
     <row r="5" spans="1:9">
       <c r="B5" s="1">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -981,25 +975,25 @@
     </row>
     <row r="6" spans="1:9">
       <c r="B6" s="1">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -1007,25 +1001,25 @@
     </row>
     <row r="7" spans="1:9">
       <c r="B7" s="1">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -1033,25 +1027,25 @@
     </row>
     <row r="8" spans="1:9">
       <c r="B8" s="1">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -1059,25 +1053,25 @@
     </row>
     <row r="9" spans="1:9">
       <c r="B9" s="1">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I9" s="1">
         <v>3</v>
@@ -1085,25 +1079,25 @@
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="1">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -1111,25 +1105,25 @@
     </row>
     <row r="11" spans="1:9">
       <c r="B11" s="1">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
@@ -1137,25 +1131,25 @@
     </row>
     <row r="12" spans="1:9">
       <c r="B12" s="1">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -1163,25 +1157,25 @@
     </row>
     <row r="13" spans="1:9">
       <c r="B13" s="1">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
@@ -1189,25 +1183,25 @@
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="1">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
@@ -1215,25 +1209,25 @@
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="1">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I15" s="1">
         <v>1</v>
@@ -1241,25 +1235,25 @@
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="1">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
@@ -1267,25 +1261,25 @@
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="1">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
@@ -1293,25 +1287,25 @@
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="1">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I18" s="1">
         <v>1</v>
@@ -1319,25 +1313,25 @@
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="1">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I19" s="1">
         <v>2</v>
@@ -1345,25 +1339,25 @@
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="1">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I20" s="1">
         <v>1</v>
@@ -1371,25 +1365,25 @@
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="1">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I21" s="1">
         <v>1</v>
@@ -1397,25 +1391,25 @@
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="1">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
@@ -1423,25 +1417,25 @@
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="1">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
@@ -1449,25 +1443,25 @@
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="1">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I24" s="1">
         <v>1</v>
@@ -1475,25 +1469,25 @@
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="1">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I25" s="1">
         <v>1</v>
@@ -1501,25 +1495,25 @@
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="1">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I26" s="1">
         <v>1</v>
@@ -1527,25 +1521,25 @@
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="1">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I27" s="1">
         <v>1</v>
@@ -1553,25 +1547,25 @@
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="1">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I28" s="1">
         <v>1</v>
@@ -1579,25 +1573,25 @@
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="1">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I29" s="1">
         <v>1</v>
@@ -1605,25 +1599,25 @@
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="1">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I30" s="1">
         <v>1</v>
@@ -1631,25 +1625,25 @@
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="1">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I31" s="1">
         <v>1</v>
@@ -1657,25 +1651,25 @@
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="1">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I32" s="1">
         <v>1</v>
@@ -1683,25 +1677,25 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="1">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I33" s="1">
         <v>1</v>
@@ -1709,25 +1703,25 @@
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="1">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I34" s="1">
         <v>1</v>
@@ -1735,25 +1729,25 @@
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="1">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I35" s="1">
         <v>1</v>
@@ -1761,25 +1755,25 @@
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="1">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I36" s="1">
         <v>1</v>
@@ -1787,25 +1781,25 @@
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="1">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I37" s="1">
         <v>1</v>
@@ -1813,25 +1807,25 @@
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="1">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I38" s="1">
         <v>4</v>
@@ -1839,25 +1833,25 @@
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="1">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I39" s="1">
         <v>1</v>
@@ -1865,25 +1859,25 @@
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="1">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I40" s="1">
         <v>1</v>
@@ -1891,25 +1885,25 @@
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="1">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I41" s="1">
         <v>1</v>
@@ -1917,25 +1911,25 @@
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="1">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I42" s="1">
         <v>1</v>
@@ -1943,25 +1937,25 @@
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="1">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I43" s="1">
         <v>4</v>
@@ -1969,25 +1963,25 @@
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="1">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I44" s="1">
         <v>1</v>
@@ -1995,22 +1989,22 @@
     </row>
     <row r="45" spans="2:9">
       <c r="B45" s="1">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I45" s="1">
         <v>1</v>
@@ -2018,48 +2012,51 @@
     </row>
     <row r="46" spans="2:9">
       <c r="B46" s="1">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="G46" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="H46" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I46" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" s="1">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I47" s="1">
         <v>2</v>
@@ -2067,51 +2064,48 @@
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="1">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I48" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="2:9">
       <c r="B49" s="1">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="H49" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I49" s="1">
         <v>1</v>
@@ -2119,22 +2113,22 @@
     </row>
     <row r="50" spans="2:9">
       <c r="B50" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I50" s="1">
         <v>1</v>
@@ -2148,16 +2142,16 @@
         <v>58</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>58</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I51" s="1">
         <v>1</v>
@@ -2171,16 +2165,16 @@
         <v>59</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I52" s="1">
         <v>1</v>
@@ -2194,16 +2188,16 @@
         <v>60</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>60</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I53" s="1">
         <v>1</v>
@@ -2217,17 +2211,14 @@
         <v>61</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="I54" s="1">
         <v>1</v>
       </c>
@@ -2240,13 +2231,16 @@
         <v>62</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>62</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="I55" s="1">
         <v>1</v>
@@ -2260,16 +2254,16 @@
         <v>63</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>63</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I56" s="1">
         <v>1</v>
@@ -2283,16 +2277,16 @@
         <v>64</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I57" s="1">
         <v>1</v>
@@ -2306,16 +2300,16 @@
         <v>65</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>65</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I58" s="1">
         <v>1</v>
@@ -2329,16 +2323,16 @@
         <v>66</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I59" s="1">
         <v>1</v>
@@ -2352,16 +2346,16 @@
         <v>67</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I60" s="1">
         <v>1</v>
@@ -2375,19 +2369,19 @@
         <v>68</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>68</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I61" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="2:9">
@@ -2398,42 +2392,19 @@
         <v>69</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I62" s="1">
         <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9">
-      <c r="B63" s="1">
-        <v>143</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I63" s="1">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/MVP_02/SHOPPING_LISTS/VITROTEM.xlsx
+++ b/MVP_02/SHOPPING_LISTS/VITROTEM.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="148">
   <si>
     <t>DOCUMENT PREVIEW</t>
   </si>
@@ -442,7 +442,19 @@
     <t>1060 Alloy</t>
   </si>
   <si>
+    <t>ABS Black</t>
+  </si>
+  <si>
+    <t>ABS Clear</t>
+  </si>
+  <si>
+    <t>PEEK Black</t>
+  </si>
+  <si>
     <t>Polyetheretherketone (PEEK)</t>
+  </si>
+  <si>
+    <t>PEEK Natural</t>
   </si>
   <si>
     <t>Material &lt;not specified&gt;</t>
@@ -1487,7 +1499,7 @@
         <v>135</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I25" s="1">
         <v>1</v>
@@ -1747,7 +1759,7 @@
         <v>135</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I35" s="1">
         <v>1</v>
@@ -1773,7 +1785,7 @@
         <v>135</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I36" s="1">
         <v>1</v>
@@ -1799,7 +1811,7 @@
         <v>135</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I37" s="1">
         <v>1</v>
@@ -1929,7 +1941,7 @@
         <v>135</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I42" s="1">
         <v>1</v>
@@ -2004,7 +2016,7 @@
         <v>52</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I45" s="1">
         <v>1</v>
@@ -2030,7 +2042,7 @@
         <v>133</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I46" s="1">
         <v>2</v>
@@ -2056,7 +2068,7 @@
         <v>133</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I47" s="1">
         <v>2</v>
@@ -2082,7 +2094,7 @@
         <v>133</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I48" s="1">
         <v>1</v>
@@ -2105,7 +2117,7 @@
         <v>56</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I49" s="1">
         <v>1</v>
@@ -2128,7 +2140,7 @@
         <v>57</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I50" s="1">
         <v>1</v>
@@ -2151,7 +2163,7 @@
         <v>58</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I51" s="1">
         <v>1</v>
@@ -2174,7 +2186,7 @@
         <v>59</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I52" s="1">
         <v>1</v>
@@ -2197,7 +2209,7 @@
         <v>60</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I53" s="1">
         <v>1</v>
@@ -2240,7 +2252,7 @@
         <v>62</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I55" s="1">
         <v>1</v>
@@ -2263,7 +2275,7 @@
         <v>63</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I56" s="1">
         <v>1</v>
@@ -2286,7 +2298,7 @@
         <v>64</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I57" s="1">
         <v>1</v>
@@ -2309,7 +2321,7 @@
         <v>65</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I58" s="1">
         <v>1</v>
@@ -2332,7 +2344,7 @@
         <v>66</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I59" s="1">
         <v>1</v>
@@ -2355,7 +2367,7 @@
         <v>67</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I60" s="1">
         <v>1</v>
@@ -2378,7 +2390,7 @@
         <v>68</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I61" s="1">
         <v>4</v>
@@ -2401,7 +2413,7 @@
         <v>69</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I62" s="1">
         <v>1</v>

--- a/MVP_02/SHOPPING_LISTS/VITROTEM.xlsx
+++ b/MVP_02/SHOPPING_LISTS/VITROTEM.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="147">
   <si>
     <t>DOCUMENT PREVIEW</t>
   </si>
@@ -449,9 +449,6 @@
   </si>
   <si>
     <t>PEEK Black</t>
-  </si>
-  <si>
-    <t>Polyetheretherketone (PEEK)</t>
   </si>
   <si>
     <t>PEEK Natural</t>
@@ -848,7 +845,7 @@
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" customWidth="1"/>
     <col min="7" max="7" width="27.7109375" customWidth="1"/>
-    <col min="8" max="8" width="39.7109375" customWidth="1"/>
+    <col min="8" max="8" width="36.7109375" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1811,7 +1808,7 @@
         <v>135</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I37" s="1">
         <v>1</v>
@@ -1941,7 +1938,7 @@
         <v>135</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I42" s="1">
         <v>1</v>
@@ -2016,7 +2013,7 @@
         <v>52</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I45" s="1">
         <v>1</v>
@@ -2042,7 +2039,7 @@
         <v>133</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I46" s="1">
         <v>2</v>
@@ -2068,7 +2065,7 @@
         <v>133</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I47" s="1">
         <v>2</v>
@@ -2094,7 +2091,7 @@
         <v>133</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I48" s="1">
         <v>1</v>
@@ -2117,7 +2114,7 @@
         <v>56</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I49" s="1">
         <v>1</v>
@@ -2140,7 +2137,7 @@
         <v>57</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I50" s="1">
         <v>1</v>
@@ -2163,7 +2160,7 @@
         <v>58</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I51" s="1">
         <v>1</v>
@@ -2186,7 +2183,7 @@
         <v>59</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I52" s="1">
         <v>1</v>
@@ -2209,7 +2206,7 @@
         <v>60</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I53" s="1">
         <v>1</v>
@@ -2252,7 +2249,7 @@
         <v>62</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I55" s="1">
         <v>1</v>
@@ -2275,7 +2272,7 @@
         <v>63</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I56" s="1">
         <v>1</v>
@@ -2298,7 +2295,7 @@
         <v>64</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I57" s="1">
         <v>1</v>
@@ -2321,7 +2318,7 @@
         <v>65</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I58" s="1">
         <v>1</v>
@@ -2344,7 +2341,7 @@
         <v>66</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I59" s="1">
         <v>1</v>
@@ -2367,7 +2364,7 @@
         <v>67</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I60" s="1">
         <v>1</v>
@@ -2390,7 +2387,7 @@
         <v>68</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I61" s="1">
         <v>4</v>
@@ -2413,7 +2410,7 @@
         <v>69</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I62" s="1">
         <v>1</v>

--- a/MVP_02/SHOPPING_LISTS/VITROTEM.xlsx
+++ b/MVP_02/SHOPPING_LISTS/VITROTEM.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="146">
   <si>
     <t>DOCUMENT PREVIEW</t>
   </si>
@@ -187,6 +187,9 @@
     <t>20-019502</t>
   </si>
   <si>
+    <t>20-019506</t>
+  </si>
+  <si>
     <t>20-019503</t>
   </si>
   <si>
@@ -223,9 +226,6 @@
     <t>20-019505</t>
   </si>
   <si>
-    <t>20-019506</t>
-  </si>
-  <si>
     <t>20-019508</t>
   </si>
   <si>
@@ -370,6 +370,9 @@
     <t>COVER C</t>
   </si>
   <si>
+    <t>COVER CORNER BRACKETS</t>
+  </si>
+  <si>
     <t>MEMBRANE PUMP BRACKET</t>
   </si>
   <si>
@@ -406,9 +409,6 @@
     <t>RELAY MOUNT</t>
   </si>
   <si>
-    <t>COVER CORNER BRACKETS</t>
-  </si>
-  <si>
     <t>MOTOR STOP</t>
   </si>
   <si>
@@ -446,9 +446,6 @@
   </si>
   <si>
     <t>ABS Clear</t>
-  </si>
-  <si>
-    <t>PEEK Black</t>
   </si>
   <si>
     <t>PEEK Natural</t>
@@ -1756,7 +1753,7 @@
         <v>135</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I35" s="1">
         <v>1</v>
@@ -1782,7 +1779,7 @@
         <v>135</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I36" s="1">
         <v>1</v>
@@ -1938,7 +1935,7 @@
         <v>135</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I42" s="1">
         <v>1</v>
@@ -2013,7 +2010,7 @@
         <v>52</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I45" s="1">
         <v>1</v>
@@ -2039,7 +2036,7 @@
         <v>133</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="I46" s="1">
         <v>2</v>
@@ -2065,7 +2062,7 @@
         <v>133</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="I47" s="1">
         <v>2</v>
@@ -2091,7 +2088,7 @@
         <v>133</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="I48" s="1">
         <v>1</v>
@@ -2099,7 +2096,7 @@
     </row>
     <row r="49" spans="2:9">
       <c r="B49" s="1">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>56</v>
@@ -2114,10 +2111,10 @@
         <v>56</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I49" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="2:9">
@@ -2137,7 +2134,7 @@
         <v>57</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I50" s="1">
         <v>1</v>
@@ -2145,7 +2142,7 @@
     </row>
     <row r="51" spans="2:9">
       <c r="B51" s="1">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>58</v>
@@ -2160,7 +2157,7 @@
         <v>58</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I51" s="1">
         <v>1</v>
@@ -2168,7 +2165,7 @@
     </row>
     <row r="52" spans="2:9">
       <c r="B52" s="1">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>59</v>
@@ -2183,7 +2180,7 @@
         <v>59</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I52" s="1">
         <v>1</v>
@@ -2191,7 +2188,7 @@
     </row>
     <row r="53" spans="2:9">
       <c r="B53" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>60</v>
@@ -2206,7 +2203,7 @@
         <v>60</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I53" s="1">
         <v>1</v>
@@ -2214,7 +2211,7 @@
     </row>
     <row r="54" spans="2:9">
       <c r="B54" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>61</v>
@@ -2228,13 +2225,16 @@
       <c r="F54" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="H54" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="I54" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="2:9">
       <c r="B55" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>62</v>
@@ -2248,16 +2248,13 @@
       <c r="F55" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="I55" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="2:9">
       <c r="B56" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>63</v>
@@ -2272,7 +2269,7 @@
         <v>63</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I56" s="1">
         <v>1</v>
@@ -2280,7 +2277,7 @@
     </row>
     <row r="57" spans="2:9">
       <c r="B57" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>64</v>
@@ -2295,7 +2292,7 @@
         <v>64</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I57" s="1">
         <v>1</v>
@@ -2303,7 +2300,7 @@
     </row>
     <row r="58" spans="2:9">
       <c r="B58" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>65</v>
@@ -2318,7 +2315,7 @@
         <v>65</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I58" s="1">
         <v>1</v>
@@ -2326,7 +2323,7 @@
     </row>
     <row r="59" spans="2:9">
       <c r="B59" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>66</v>
@@ -2349,7 +2346,7 @@
     </row>
     <row r="60" spans="2:9">
       <c r="B60" s="1">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>67</v>
@@ -2364,7 +2361,7 @@
         <v>67</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I60" s="1">
         <v>1</v>
@@ -2372,7 +2369,7 @@
     </row>
     <row r="61" spans="2:9">
       <c r="B61" s="1">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>68</v>
@@ -2387,15 +2384,15 @@
         <v>68</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I61" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="2:9">
       <c r="B62" s="1">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>69</v>
@@ -2410,7 +2407,7 @@
         <v>69</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I62" s="1">
         <v>1</v>

--- a/MVP_02/SHOPPING_LISTS/VITROTEM.xlsx
+++ b/MVP_02/SHOPPING_LISTS/VITROTEM.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="144">
   <si>
     <t>DOCUMENT PREVIEW</t>
   </si>
@@ -79,342 +79,339 @@
     <t>20-019369</t>
   </si>
   <si>
+    <t>20-019373</t>
+  </si>
+  <si>
+    <t>20-019374</t>
+  </si>
+  <si>
+    <t>20-019375</t>
+  </si>
+  <si>
+    <t>20-019376</t>
+  </si>
+  <si>
+    <t>20-019377</t>
+  </si>
+  <si>
+    <t>20-019378</t>
+  </si>
+  <si>
+    <t>20-019379</t>
+  </si>
+  <si>
+    <t>20-019383</t>
+  </si>
+  <si>
+    <t>20-019385</t>
+  </si>
+  <si>
+    <t>20-019386</t>
+  </si>
+  <si>
+    <t>20-019387</t>
+  </si>
+  <si>
+    <t>20-019389</t>
+  </si>
+  <si>
+    <t>20-019390</t>
+  </si>
+  <si>
+    <t>20-019391</t>
+  </si>
+  <si>
+    <t>20-019392</t>
+  </si>
+  <si>
+    <t>20-019393</t>
+  </si>
+  <si>
+    <t>20-019396</t>
+  </si>
+  <si>
+    <t>20-019397</t>
+  </si>
+  <si>
+    <t>20-019399</t>
+  </si>
+  <si>
+    <t>20-019400</t>
+  </si>
+  <si>
+    <t>20-019401</t>
+  </si>
+  <si>
+    <t>20-019402</t>
+  </si>
+  <si>
+    <t>20-019403</t>
+  </si>
+  <si>
+    <t>20-019405</t>
+  </si>
+  <si>
+    <t>20-019410</t>
+  </si>
+  <si>
+    <t>20-019471</t>
+  </si>
+  <si>
+    <t>20-019421</t>
+  </si>
+  <si>
+    <t>20-019422</t>
+  </si>
+  <si>
+    <t>20-019469</t>
+  </si>
+  <si>
+    <t>20-019460</t>
+  </si>
+  <si>
+    <t>20-019482</t>
+  </si>
+  <si>
+    <t>20-019497</t>
+  </si>
+  <si>
+    <t>20-019529</t>
+  </si>
+  <si>
+    <t>20-019500</t>
+  </si>
+  <si>
+    <t>20-019501</t>
+  </si>
+  <si>
+    <t>20-019502</t>
+  </si>
+  <si>
+    <t>20-019506</t>
+  </si>
+  <si>
+    <t>20-019503</t>
+  </si>
+  <si>
+    <t>20-019487</t>
+  </si>
+  <si>
+    <t>20-019488</t>
+  </si>
+  <si>
+    <t>20-019490</t>
+  </si>
+  <si>
+    <t>20-019492</t>
+  </si>
+  <si>
+    <t>20-019494</t>
+  </si>
+  <si>
+    <t>20-019493</t>
+  </si>
+  <si>
+    <t>20-019496</t>
+  </si>
+  <si>
+    <t>20-019508</t>
+  </si>
+  <si>
+    <t>20-019526</t>
+  </si>
+  <si>
+    <t>20-019528</t>
+  </si>
+  <si>
+    <t>20-019633</t>
+  </si>
+  <si>
+    <t>PRECISION MICRO 4</t>
+  </si>
+  <si>
+    <t>CARTRIDGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOP COVER </t>
+  </si>
+  <si>
+    <t>BACK COVER</t>
+  </si>
+  <si>
+    <t>SIDE COVER A</t>
+  </si>
+  <si>
+    <t>SIDE COVER B</t>
+  </si>
+  <si>
+    <t>FRONT COVER</t>
+  </si>
+  <si>
+    <t>HEATPIPE</t>
+  </si>
+  <si>
+    <t>BASE PLATE</t>
+  </si>
+  <si>
+    <t>BACK PLATE</t>
+  </si>
+  <si>
+    <t>LOOP HOLDER</t>
+  </si>
+  <si>
+    <t>BOTTOM PLATE</t>
+  </si>
+  <si>
+    <t>FLOWCELL SLIDER</t>
+  </si>
+  <si>
+    <t>CARTRIDGE PLATFORM</t>
+  </si>
+  <si>
+    <t>GRID HOLDER</t>
+  </si>
+  <si>
+    <t>CARTRIDGE LANDING PAD</t>
+  </si>
+  <si>
+    <t>SET BLOCK</t>
+  </si>
+  <si>
+    <t>CARTRIDGE LANDING LID</t>
+  </si>
+  <si>
+    <t>HORIZONTAL MOTOR PLATE</t>
+  </si>
+  <si>
+    <t>HEATPIPE CLAMP A</t>
+  </si>
+  <si>
+    <t>HEATPIPE CLAMP B</t>
+  </si>
+  <si>
+    <t>HEATSINK</t>
+  </si>
+  <si>
+    <t>FLOWCELL COVER</t>
+  </si>
+  <si>
+    <t>DIVIDER PLATE A</t>
+  </si>
+  <si>
+    <t>DIVIDER PLATE B</t>
+  </si>
+  <si>
+    <t>HEATSINK CLAMP</t>
+  </si>
+  <si>
+    <t>FLOWCELL COVER BRACKET</t>
+  </si>
+  <si>
+    <t>LEFT BRACE CONNECTOR</t>
+  </si>
+  <si>
+    <t>RIGHT BRACE CONNECTOR</t>
+  </si>
+  <si>
+    <t>VALVE PLATE</t>
+  </si>
+  <si>
+    <t>ACTUATOR BRACKET</t>
+  </si>
+  <si>
+    <t>CARTRIDGE BRACKET</t>
+  </si>
+  <si>
+    <t>BOTTOM TRAY B</t>
+  </si>
+  <si>
+    <t>BOTTOM TRAY A</t>
+  </si>
+  <si>
+    <t>LOOP HOLDER CLIP</t>
+  </si>
+  <si>
+    <t>HOUSING CONNECTION A</t>
+  </si>
+  <si>
+    <t>COPPER JACKET</t>
+  </si>
+  <si>
+    <t>MOTOR / RAIL BRACKET A</t>
+  </si>
+  <si>
+    <t>MOTOR / RAIL BRACKET b</t>
+  </si>
+  <si>
+    <t>FLOWCELL</t>
+  </si>
+  <si>
+    <t>HOUSING CONNECTION B</t>
+  </si>
+  <si>
+    <t>PATCH PANEL FOR PSU</t>
+  </si>
+  <si>
+    <t>WATER TRAY</t>
+  </si>
+  <si>
+    <t>COVER D</t>
+  </si>
+  <si>
+    <t>COVER A</t>
+  </si>
+  <si>
+    <t>COVER B</t>
+  </si>
+  <si>
+    <t>COVER C</t>
+  </si>
+  <si>
+    <t>COVER CORNER BRACKETS</t>
+  </si>
+  <si>
+    <t>MEMBRANE PUMP BRACKET</t>
+  </si>
+  <si>
+    <t>PELTIER PSU SUPPORT</t>
+  </si>
+  <si>
+    <t>PELTIER HOLDER BRACKET</t>
+  </si>
+  <si>
+    <t>TC HOLDER BRACKET</t>
+  </si>
+  <si>
+    <t>MVP: PCB</t>
+  </si>
+  <si>
+    <t>MVP: ARUINO BRACKET</t>
+  </si>
+  <si>
+    <t>MVP: PCB BRACKET</t>
+  </si>
+  <si>
+    <t>PUMP BRACKET B</t>
+  </si>
+  <si>
+    <t>MOTOR STOP</t>
+  </si>
+  <si>
+    <t>LOOP HOLDER INTERFACE</t>
+  </si>
+  <si>
+    <t>COVER CORNER BRACKETS B</t>
+  </si>
+  <si>
+    <t>TC / OUTFLOW MOTOR PLATE</t>
+  </si>
+  <si>
+    <t>VITROTEM</t>
+  </si>
+  <si>
     <t>20-019372</t>
   </si>
   <si>
-    <t>20-019373</t>
-  </si>
-  <si>
-    <t>20-019374</t>
-  </si>
-  <si>
-    <t>20-019375</t>
-  </si>
-  <si>
-    <t>20-019376</t>
-  </si>
-  <si>
-    <t>20-019377</t>
-  </si>
-  <si>
-    <t>20-019378</t>
-  </si>
-  <si>
-    <t>20-019379</t>
-  </si>
-  <si>
-    <t>20-019383</t>
-  </si>
-  <si>
-    <t>20-019385</t>
-  </si>
-  <si>
-    <t>20-019386</t>
-  </si>
-  <si>
-    <t>20-019387</t>
-  </si>
-  <si>
-    <t>20-019389</t>
-  </si>
-  <si>
-    <t>20-019390</t>
-  </si>
-  <si>
-    <t>20-019391</t>
-  </si>
-  <si>
-    <t>20-019392</t>
-  </si>
-  <si>
-    <t>20-019393</t>
-  </si>
-  <si>
-    <t>20-019396</t>
-  </si>
-  <si>
-    <t>20-019397</t>
-  </si>
-  <si>
-    <t>20-019399</t>
-  </si>
-  <si>
-    <t>20-019400</t>
-  </si>
-  <si>
-    <t>20-019401</t>
-  </si>
-  <si>
-    <t>20-019402</t>
-  </si>
-  <si>
-    <t>20-019403</t>
-  </si>
-  <si>
-    <t>20-019405</t>
-  </si>
-  <si>
-    <t>20-019410</t>
-  </si>
-  <si>
-    <t>20-019471</t>
-  </si>
-  <si>
-    <t>20-019421</t>
-  </si>
-  <si>
-    <t>20-019422</t>
-  </si>
-  <si>
-    <t>20-019469</t>
-  </si>
-  <si>
-    <t>20-019460</t>
-  </si>
-  <si>
-    <t>20-019482</t>
-  </si>
-  <si>
-    <t>20-019497</t>
-  </si>
-  <si>
-    <t>20-019500</t>
-  </si>
-  <si>
-    <t>20-019501</t>
-  </si>
-  <si>
-    <t>20-019502</t>
-  </si>
-  <si>
-    <t>20-019506</t>
-  </si>
-  <si>
-    <t>20-019503</t>
-  </si>
-  <si>
-    <t>20-019487</t>
-  </si>
-  <si>
-    <t>20-019488</t>
-  </si>
-  <si>
-    <t>20-019489</t>
-  </si>
-  <si>
-    <t>20-019490</t>
-  </si>
-  <si>
-    <t>20-019492</t>
-  </si>
-  <si>
-    <t>20-019494</t>
-  </si>
-  <si>
-    <t>20-019493</t>
-  </si>
-  <si>
-    <t>20-019495</t>
-  </si>
-  <si>
-    <t>20-019496</t>
-  </si>
-  <si>
-    <t>20-019504</t>
-  </si>
-  <si>
-    <t>20-019505</t>
-  </si>
-  <si>
-    <t>20-019508</t>
-  </si>
-  <si>
-    <t>PRECISION MICRO 4</t>
-  </si>
-  <si>
-    <t>CARTRIDGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOP COVER </t>
-  </si>
-  <si>
-    <t>BACK COVER</t>
-  </si>
-  <si>
-    <t>SIDE COVER A</t>
-  </si>
-  <si>
-    <t>SIDE COVER B</t>
-  </si>
-  <si>
-    <t>FRONT COVER</t>
-  </si>
-  <si>
-    <t>HEATPIPE</t>
-  </si>
-  <si>
-    <t>BASE PLATE</t>
-  </si>
-  <si>
-    <t>BACK PLATE</t>
-  </si>
-  <si>
-    <t>LOOP HOLDER</t>
-  </si>
-  <si>
-    <t>LOOP HOLDER INTERFACE</t>
-  </si>
-  <si>
-    <t>BOTTOM PLATE</t>
-  </si>
-  <si>
-    <t>FLOWCELL SLIDER</t>
-  </si>
-  <si>
-    <t>CARTRIDGE PLATFORM</t>
-  </si>
-  <si>
-    <t>GRID HOLDER</t>
-  </si>
-  <si>
-    <t>CARTRIDGE LANDING PAD</t>
-  </si>
-  <si>
-    <t>SET BLOCK</t>
-  </si>
-  <si>
-    <t>CARTRIDGE LANDING LID</t>
-  </si>
-  <si>
-    <t>HORIZONTAL MOTOR PLATE</t>
-  </si>
-  <si>
-    <t>HEATPIPE CLAMP A</t>
-  </si>
-  <si>
-    <t>HEATPIPE CLAMP B</t>
-  </si>
-  <si>
-    <t>HEATSINK</t>
-  </si>
-  <si>
-    <t>FLOWCELL COVER</t>
-  </si>
-  <si>
-    <t>DIVIDER PLATE A</t>
-  </si>
-  <si>
-    <t>DIVIDER PLATE B</t>
-  </si>
-  <si>
-    <t>HEATSINK CLAMP</t>
-  </si>
-  <si>
-    <t>FLOWCELL COVER BRACKET</t>
-  </si>
-  <si>
-    <t>LEFT BRACE CONNECTOR</t>
-  </si>
-  <si>
-    <t>RIGHT BRACE CONNECTOR</t>
-  </si>
-  <si>
-    <t>VALVE PLATE</t>
-  </si>
-  <si>
-    <t>ACTUATOR BRACKET</t>
-  </si>
-  <si>
-    <t>CARTRIDGE BRACKET</t>
-  </si>
-  <si>
-    <t>BOTTOM TRAY B</t>
-  </si>
-  <si>
-    <t>BOTTOM TRAY A</t>
-  </si>
-  <si>
-    <t>LOOP HOLDER CLIP</t>
-  </si>
-  <si>
-    <t>HOUSING CONNECTION A</t>
-  </si>
-  <si>
-    <t>COPPER JACKET</t>
-  </si>
-  <si>
-    <t>MOTOR / RAIL BRACKET A</t>
-  </si>
-  <si>
-    <t>MOTOR / RAIL BRACKET b</t>
-  </si>
-  <si>
-    <t>FLOWCELL</t>
-  </si>
-  <si>
-    <t>HOUSING CONNECTION B</t>
-  </si>
-  <si>
-    <t>PATCH PANEL FOR PSU</t>
-  </si>
-  <si>
-    <t>WATER TRAY</t>
-  </si>
-  <si>
-    <t>COVER A</t>
-  </si>
-  <si>
-    <t>COVER B</t>
-  </si>
-  <si>
-    <t>COVER C</t>
-  </si>
-  <si>
-    <t>COVER CORNER BRACKETS</t>
-  </si>
-  <si>
-    <t>MEMBRANE PUMP BRACKET</t>
-  </si>
-  <si>
-    <t>PELTIER PSU SUPPORT</t>
-  </si>
-  <si>
-    <t>PELTIER HOLDER BRACKET</t>
-  </si>
-  <si>
-    <t>TC PLATE</t>
-  </si>
-  <si>
-    <t>TC HOLDER BRACKET</t>
-  </si>
-  <si>
-    <t>MVP: PCB</t>
-  </si>
-  <si>
-    <t>MVP: ARUINO BRACKET</t>
-  </si>
-  <si>
-    <t>MVP: PCB BRACKET</t>
-  </si>
-  <si>
-    <t>PUMP BRACKET A</t>
-  </si>
-  <si>
-    <t>PUMP BRACKET B</t>
-  </si>
-  <si>
-    <t>PCB 02 MOUNT</t>
-  </si>
-  <si>
-    <t>RELAY MOUNT</t>
-  </si>
-  <si>
-    <t>MOTOR STOP</t>
-  </si>
-  <si>
-    <t>VITROTEM</t>
-  </si>
-  <si>
     <t>PRECISION MICRO</t>
   </si>
   <si>
@@ -439,9 +436,6 @@
     <t>6061 Alloy</t>
   </si>
   <si>
-    <t>1060 Alloy</t>
-  </si>
-  <si>
     <t>ABS Black</t>
   </si>
   <si>
@@ -451,10 +445,10 @@
     <t>PEEK Natural</t>
   </si>
   <si>
+    <t>PLA</t>
+  </si>
+  <si>
     <t>Material &lt;not specified&gt;</t>
-  </si>
-  <si>
-    <t>PLA</t>
   </si>
 </sst>
 </file>
@@ -826,7 +820,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z62"/>
+  <dimension ref="A1:Z61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -838,7 +832,7 @@
     <col min="1" max="26" width="9.140625" style="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" customWidth="1"/>
     <col min="7" max="7" width="27.7109375" customWidth="1"/>
@@ -877,25 +871,25 @@
     </row>
     <row r="2" spans="1:9">
       <c r="B2" s="1">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -903,25 +897,25 @@
     </row>
     <row r="3" spans="1:9">
       <c r="B3" s="1">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -929,25 +923,25 @@
     </row>
     <row r="4" spans="1:9">
       <c r="B4" s="1">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -955,25 +949,25 @@
     </row>
     <row r="5" spans="1:9">
       <c r="B5" s="1">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -981,25 +975,25 @@
     </row>
     <row r="6" spans="1:9">
       <c r="B6" s="1">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -1007,25 +1001,25 @@
     </row>
     <row r="7" spans="1:9">
       <c r="B7" s="1">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -1033,25 +1027,25 @@
     </row>
     <row r="8" spans="1:9">
       <c r="B8" s="1">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -1059,25 +1053,25 @@
     </row>
     <row r="9" spans="1:9">
       <c r="B9" s="1">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I9" s="1">
         <v>3</v>
@@ -1085,25 +1079,25 @@
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="1">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -1111,25 +1105,25 @@
     </row>
     <row r="11" spans="1:9">
       <c r="B11" s="1">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
@@ -1137,25 +1131,25 @@
     </row>
     <row r="12" spans="1:9">
       <c r="B12" s="1">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -1163,25 +1157,25 @@
     </row>
     <row r="13" spans="1:9">
       <c r="B13" s="1">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
@@ -1189,25 +1183,25 @@
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="1">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
@@ -1215,25 +1209,25 @@
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="1">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I15" s="1">
         <v>1</v>
@@ -1241,25 +1235,25 @@
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="1">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
@@ -1267,25 +1261,25 @@
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="1">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
@@ -1293,77 +1287,77 @@
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="1">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="1">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>139</v>
       </c>
       <c r="I19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="1">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I20" s="1">
         <v>1</v>
@@ -1371,25 +1365,25 @@
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="1">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I21" s="1">
         <v>1</v>
@@ -1397,25 +1391,25 @@
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="1">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
@@ -1423,25 +1417,25 @@
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="1">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
@@ -1449,25 +1443,25 @@
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="1">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I24" s="1">
         <v>1</v>
@@ -1475,25 +1469,25 @@
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="1">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I25" s="1">
         <v>1</v>
@@ -1501,25 +1495,25 @@
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I26" s="1">
         <v>1</v>
@@ -1527,25 +1521,25 @@
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="1">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I27" s="1">
         <v>1</v>
@@ -1553,25 +1547,25 @@
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="1">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I28" s="1">
         <v>1</v>
@@ -1579,25 +1573,25 @@
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="1">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I29" s="1">
         <v>1</v>
@@ -1605,25 +1599,25 @@
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="1">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I30" s="1">
         <v>1</v>
@@ -1631,25 +1625,25 @@
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="1">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I31" s="1">
         <v>1</v>
@@ -1657,25 +1651,25 @@
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="1">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I32" s="1">
         <v>1</v>
@@ -1683,25 +1677,25 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="1">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I33" s="1">
         <v>1</v>
@@ -1709,22 +1703,22 @@
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="1">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>139</v>
@@ -1735,25 +1729,25 @@
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="1">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I35" s="1">
         <v>1</v>
@@ -1761,25 +1755,25 @@
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="1">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I36" s="1">
         <v>1</v>
@@ -1787,74 +1781,74 @@
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="1">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I37" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="1">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I38" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="1">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>138</v>
@@ -1865,25 +1859,25 @@
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="1">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I40" s="1">
         <v>1</v>
@@ -1891,25 +1885,25 @@
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="1">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I41" s="1">
         <v>1</v>
@@ -1917,77 +1911,74 @@
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="1">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I42" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="1">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I43" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="1">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="H44" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I44" s="1">
         <v>1</v>
@@ -1995,22 +1986,25 @@
     </row>
     <row r="45" spans="2:9">
       <c r="B45" s="1">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="G45" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="H45" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="I45" s="1">
         <v>1</v>
@@ -2018,51 +2012,51 @@
     </row>
     <row r="46" spans="2:9">
       <c r="B46" s="1">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I46" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" s="1">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I47" s="1">
         <v>2</v>
@@ -2070,25 +2064,25 @@
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="1">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I48" s="1">
         <v>1</v>
@@ -2096,22 +2090,22 @@
     </row>
     <row r="49" spans="2:9">
       <c r="B49" s="1">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>56</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I49" s="1">
         <v>4</v>
@@ -2119,22 +2113,22 @@
     </row>
     <row r="50" spans="2:9">
       <c r="B50" s="1">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I50" s="1">
         <v>1</v>
@@ -2142,22 +2136,22 @@
     </row>
     <row r="51" spans="2:9">
       <c r="B51" s="1">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>58</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I51" s="1">
         <v>1</v>
@@ -2165,22 +2159,22 @@
     </row>
     <row r="52" spans="2:9">
       <c r="B52" s="1">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I52" s="1">
         <v>1</v>
@@ -2188,22 +2182,22 @@
     </row>
     <row r="53" spans="2:9">
       <c r="B53" s="1">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>60</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I53" s="1">
         <v>1</v>
@@ -2211,65 +2205,65 @@
     </row>
     <row r="54" spans="2:9">
       <c r="B54" s="1">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="I54" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="2:9">
       <c r="B55" s="1">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="H55" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="I55" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="2:9">
       <c r="B56" s="1">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>63</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I56" s="1">
         <v>1</v>
@@ -2277,22 +2271,22 @@
     </row>
     <row r="57" spans="2:9">
       <c r="B57" s="1">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I57" s="1">
         <v>1</v>
@@ -2300,22 +2294,22 @@
     </row>
     <row r="58" spans="2:9">
       <c r="B58" s="1">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>65</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I58" s="1">
         <v>1</v>
@@ -2323,22 +2317,25 @@
     </row>
     <row r="59" spans="2:9">
       <c r="B59" s="1">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>66</v>
+        <v>130</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="I59" s="1">
         <v>1</v>
@@ -2346,70 +2343,47 @@
     </row>
     <row r="60" spans="2:9">
       <c r="B60" s="1">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I60" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="2:9">
       <c r="B61" s="1">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>68</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I61" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9">
-      <c r="B62" s="1">
-        <v>143</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I62" s="1">
         <v>1</v>
       </c>
     </row>
